--- a/ExcelSheets/SHOP/Shop.xlsx
+++ b/ExcelSheets/SHOP/Shop.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="133">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Successfully navigated to airtelLandline_url PASS</t>
+  </si>
+  <si>
+    <t>NO Otp Panel Displayed PASSPASS</t>
+  </si>
+  <si>
+    <t>Unable to access Alert ERROR</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="586">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -630,6 +636,342 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="4" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -2115,7 +2457,7 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="378" t="s">
+      <c r="D3" s="491" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2129,7 +2471,7 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="392" t="s">
+      <c r="D4" s="505" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2143,7 +2485,7 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="408" t="s">
+      <c r="D5" s="521" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2157,7 +2499,7 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="443" t="s">
+      <c r="D6" s="556" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2171,7 +2513,7 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="473" t="s">
+      <c r="D7" s="585" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2185,7 +2527,7 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="459" t="s">
+      <c r="D8" s="571" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2199,7 +2541,7 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="425" t="s">
+      <c r="D9" s="538" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2416,7 +2758,7 @@
       <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="361" t="s">
+      <c r="E14" s="474" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2431,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="362" t="s">
+      <c r="E15" s="475" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2444,8 +2786,8 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="363" t="s">
-        <v>105</v>
+      <c r="E16" s="476" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="17">
@@ -2459,7 +2801,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="364" t="s">
+      <c r="E17" s="477" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2474,7 +2816,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="365" t="s">
+      <c r="E18" s="478" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2491,7 +2833,7 @@
       <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="366" t="s">
+      <c r="E19" s="479" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2508,7 +2850,7 @@
       <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="367" t="s">
+      <c r="E20" s="480" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2523,7 +2865,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="368" t="s">
+      <c r="E21" s="481" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2536,7 +2878,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="369" t="s">
+      <c r="E22" s="482" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2551,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="370" t="s">
+      <c r="E23" s="483" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2566,7 +2908,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="371" t="s">
+      <c r="E24" s="484" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2581,7 +2923,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="372" t="s">
+      <c r="E25" s="485" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2596,7 +2938,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="373" t="s">
+      <c r="E26" s="486" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2611,7 +2953,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="374" t="s">
+      <c r="E27" s="487" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2624,7 +2966,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="488" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2646,7 +2988,7 @@
       <c r="D30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="379" t="s">
+      <c r="E30" s="492" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2661,7 +3003,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="380" t="s">
+      <c r="E31" s="493" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2674,8 +3016,8 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="381" t="s">
-        <v>105</v>
+      <c r="E32" s="494" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="33">
@@ -2689,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="382" t="s">
+      <c r="E33" s="495" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2717,7 +3059,7 @@
       <c r="D35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="383" t="s">
+      <c r="E35" s="496" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2734,7 +3076,7 @@
       <c r="D36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="384" t="s">
+      <c r="E36" s="497" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2749,7 +3091,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="385" t="s">
+      <c r="E37" s="498" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2762,7 +3104,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="386" t="s">
+      <c r="E38" s="499" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2777,7 +3119,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="387" t="s">
+      <c r="E39" s="500" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2792,7 +3134,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="388" t="s">
+      <c r="E40" s="501" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2805,7 +3147,7 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="389" t="s">
+      <c r="E41" s="502" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2827,7 +3169,7 @@
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="393" t="s">
+      <c r="E43" s="506" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2842,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="394" t="s">
+      <c r="E44" s="507" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2855,8 +3197,8 @@
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="395" t="s">
-        <v>105</v>
+      <c r="E45" s="508" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="46">
@@ -2870,7 +3212,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="396" t="s">
+      <c r="E46" s="509" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2887,7 +3229,7 @@
       <c r="D47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="397" t="s">
+      <c r="E47" s="510" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2904,7 +3246,7 @@
       <c r="D48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="398" t="s">
+      <c r="E48" s="511" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2921,7 +3263,7 @@
       <c r="D49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="399" t="s">
+      <c r="E49" s="512" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2936,7 +3278,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="400" t="s">
+      <c r="E50" s="513" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2949,7 +3291,7 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="401" t="s">
+      <c r="E51" s="514" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2964,7 +3306,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="402" t="s">
+      <c r="E52" s="515" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2979,7 +3321,7 @@
         <v>53</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="403" t="s">
+      <c r="E53" s="516" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2994,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="404" t="s">
+      <c r="E54" s="517" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3007,7 +3349,7 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="405" t="s">
+      <c r="E55" s="518" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3029,7 +3371,7 @@
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="426" t="s">
+      <c r="E57" s="539" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3044,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="427" t="s">
+      <c r="E58" s="540" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3057,8 +3399,8 @@
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="428" t="s">
-        <v>105</v>
+      <c r="E59" s="541" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="60">
@@ -3072,7 +3414,7 @@
         <v>62</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="429" t="s">
+      <c r="E60" s="542" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3089,7 +3431,7 @@
       <c r="D61" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="430" t="s">
+      <c r="E61" s="543" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3106,7 +3448,7 @@
       <c r="D62" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="431" t="s">
+      <c r="E62" s="544" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3123,7 +3465,7 @@
       <c r="D63" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="432" t="s">
+      <c r="E63" s="545" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3138,7 +3480,7 @@
         <v>68</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="433" t="s">
+      <c r="E64" s="546" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3153,7 +3495,7 @@
         <v>37</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="434" t="s">
+      <c r="E65" s="547" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3168,7 +3510,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="435" t="s">
+      <c r="E66" s="548" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3183,7 +3525,7 @@
         <v>37</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="436" t="s">
+      <c r="E67" s="549" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3198,7 +3540,7 @@
         <v>70</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="437" t="s">
+      <c r="E68" s="550" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3211,7 +3553,7 @@
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="438" t="s">
+      <c r="E69" s="551" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3226,7 +3568,7 @@
         <v>71</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="439" t="s">
+      <c r="E70" s="552" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3239,7 +3581,7 @@
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="440" t="s">
+      <c r="E71" s="553" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3261,7 +3603,7 @@
       <c r="D73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="460" t="s">
+      <c r="E73" s="572" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3276,7 +3618,7 @@
         <v>27</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="461" t="s">
+      <c r="E74" s="573" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3289,8 +3631,8 @@
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="462" t="s">
-        <v>105</v>
+      <c r="E75" s="574" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="76">
@@ -3304,7 +3646,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="463" t="s">
+      <c r="E76" s="575" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3321,7 +3663,7 @@
       <c r="D77" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="464" t="s">
+      <c r="E77" s="576" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3338,7 +3680,7 @@
       <c r="D78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="465" t="s">
+      <c r="E78" s="577" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3355,7 +3697,7 @@
       <c r="D79" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="466" t="s">
+      <c r="E79" s="578" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3370,7 +3712,7 @@
         <v>70</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="467" t="s">
+      <c r="E80" s="579" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3383,7 +3725,7 @@
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="468" t="s">
+      <c r="E81" s="580" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3398,7 +3740,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="469" t="s">
+      <c r="E82" s="581" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3411,7 +3753,7 @@
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="470" t="s">
+      <c r="E83" s="582" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3433,7 +3775,7 @@
       <c r="D85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="444" t="s">
+      <c r="E85" s="557" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3448,7 +3790,7 @@
         <v>27</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="445" t="s">
+      <c r="E86" s="558" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3461,8 +3803,8 @@
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="446" t="s">
-        <v>105</v>
+      <c r="E87" s="559" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="88">
@@ -3476,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="447" t="s">
+      <c r="E88" s="560" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3493,7 +3835,7 @@
       <c r="D89" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="448" t="s">
+      <c r="E89" s="561" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3510,7 +3852,7 @@
       <c r="D90" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="449" t="s">
+      <c r="E90" s="562" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3525,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="450" t="s">
+      <c r="E91" s="563" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3540,7 +3882,7 @@
         <v>69</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="451" t="s">
+      <c r="E92" s="564" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3555,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="452" t="s">
+      <c r="E93" s="565" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3583,8 +3925,8 @@
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="454" t="s">
-        <v>110</v>
+      <c r="E95" s="566" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="96">
@@ -3598,8 +3940,8 @@
         <v>71</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="455" t="s">
-        <v>123</v>
+      <c r="E96" s="567" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="97">
@@ -3611,7 +3953,7 @@
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="456" t="s">
+      <c r="E97" s="568" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3727,7 +4069,7 @@
       <c r="D107" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="409" t="s">
+      <c r="E107" s="522" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3742,7 +4084,7 @@
         <v>27</v>
       </c>
       <c r="D108" s="9"/>
-      <c r="E108" s="410" t="s">
+      <c r="E108" s="523" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3755,8 +4097,8 @@
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="411" t="s">
-        <v>105</v>
+      <c r="E109" s="524" t="s">
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="110">
@@ -3770,7 +4112,7 @@
         <v>81</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="412" t="s">
+      <c r="E110" s="525" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3787,7 +4129,7 @@
       <c r="D111" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="413" t="s">
+      <c r="E111" s="526" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3804,7 +4146,7 @@
       <c r="D112" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E112" s="414" t="s">
+      <c r="E112" s="527" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3821,7 +4163,7 @@
       <c r="D113" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E113" s="415" t="s">
+      <c r="E113" s="528" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3835,7 +4177,7 @@
       <c r="C114" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E114" s="416" t="s">
+      <c r="E114" s="529" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3849,7 +4191,7 @@
       <c r="C115" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E115" s="417" t="s">
+      <c r="E115" s="530" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3863,7 +4205,7 @@
       <c r="C116" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="418" t="s">
+      <c r="E116" s="531" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3877,7 +4219,7 @@
       <c r="C117" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E117" s="419" t="s">
+      <c r="E117" s="532" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3889,7 +4231,7 @@
         <v>49</v>
       </c>
       <c r="C118" s="7"/>
-      <c r="E118" s="420" t="s">
+      <c r="E118" s="533" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3903,7 +4245,7 @@
       <c r="C119" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="421" t="s">
+      <c r="E119" s="534" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3914,7 +4256,7 @@
       <c r="B120" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E120" s="422" t="s">
+      <c r="E120" s="535" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4118,10 +4460,10 @@
         <v>95</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="377" t="s">
+      <c r="I8" s="490" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="376" t="s">
+      <c r="J8" s="489" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4232,10 +4574,10 @@
       <c r="H14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="391" t="s">
+      <c r="I14" s="504" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="390" t="s">
+      <c r="J14" s="503" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4334,10 +4676,10 @@
       <c r="H19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="407" t="s">
+      <c r="I19" s="520" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="406" t="s">
+      <c r="J19" s="519" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4448,10 +4790,10 @@
       <c r="H25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="442" t="s">
+      <c r="I25" s="555" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="441" t="s">
+      <c r="J25" s="554" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4550,10 +4892,10 @@
       <c r="H30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="472" t="s">
+      <c r="I30" s="584" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="471" t="s">
+      <c r="J30" s="583" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4647,10 +4989,10 @@
       <c r="G35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="458" t="s">
+      <c r="H35" s="570" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="457" t="s">
+      <c r="I35" s="569" t="s">
         <v>114</v>
       </c>
       <c r="J35" s="0"/>
@@ -4841,10 +5183,10 @@
       <c r="G45" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="424" t="s">
+      <c r="H45" s="537" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="423" t="s">
+      <c r="I45" s="536" t="s">
         <v>114</v>
       </c>
       <c r="J45" s="16" t="s">
